--- a/medicine/Psychotrope/Bordeaux_rosé/Bordeaux_rosé.xlsx
+++ b/medicine/Psychotrope/Bordeaux_rosé/Bordeaux_rosé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bordeaux_ros%C3%A9</t>
+          <t>Bordeaux_rosé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bordeaux rosé est un vin rosé sec. Il entre dans la catégorie du vin tranquille.
 Le bordeaux rosé est produit dans le vignoble de Bordeaux (administrativement, le bordeaux rosé peut être produit sur les communes de l'aire d'appellation bordeaux du département de la Gironde), plus précisément dans les régions viticoles du Médoc, de Graves, d'Entre-deux-mers, du Sauternais, du Libournais, du Blayais et du Bourgeais, soit une surface de 4 725 hectares pour une production de 170 000 hectolitres par an. 
